--- a/doc/BF/价格调整/线上销售商品-全商品-当前.xlsx
+++ b/doc/BF/价格调整/线上销售商品-全商品-当前.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -1085,103 +1085,103 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>100075</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰国小菠萝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格：1个(约300g)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格：2个(约540g)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂糖橘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格：1盒(约250g)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦糖瓜子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格：1袋(约250g)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>京卷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>常香玉瓜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格：1个(约2300g)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100085</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100082</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100081</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100080</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100078</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100077</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100076</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100064</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无花果(中)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100079</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>库尔勒香梨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100014</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>手剥巴西松子</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>规格：1袋(约530g)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100075</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰国小菠萝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格：1个(约300g)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格：2个(约540g)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>砂糖橘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格：1盒(约250g)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦糖瓜子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格：1袋(约250g)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>京卷</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>常香玉瓜</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格：1个(约2300g)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100085</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100082</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100081</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100080</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100078</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100077</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100076</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100064</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>无花果(中)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100079</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>库尔勒香梨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100014</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1742,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1886,7 +1886,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>281</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="12" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>280</v>
@@ -2611,10 +2611,10 @@
     </row>
     <row r="62" spans="1:4" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>328</v>
@@ -2656,10 +2656,10 @@
         <v>331</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="D65" s="9">
         <v>150</v>
@@ -2765,13 +2765,13 @@
     </row>
     <row r="73" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="D73" s="9">
         <v>13</v>
@@ -2779,13 +2779,13 @@
     </row>
     <row r="74" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>330</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D74" s="9">
         <v>8</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="75" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>333</v>
@@ -2807,13 +2807,13 @@
     </row>
     <row r="76" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>276</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D76" s="9">
         <v>55</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="77" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>333</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="78" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>279</v>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="79" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D79" s="9">
         <v>15</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="80" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>333</v>
@@ -2905,13 +2905,13 @@
     </row>
     <row r="83" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D83" s="9">
         <v>20</v>
